--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.0051758904736</v>
+        <v>57.319636</v>
       </c>
       <c r="H2">
-        <v>55.0051758904736</v>
+        <v>171.958908</v>
       </c>
       <c r="I2">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="J2">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>79.65362282022883</v>
+        <v>216.578748128204</v>
       </c>
       <c r="R2">
-        <v>79.65362282022883</v>
+        <v>1949.208733153836</v>
       </c>
       <c r="S2">
-        <v>0.1360231808673824</v>
+        <v>0.2329344646734626</v>
       </c>
       <c r="T2">
-        <v>0.1360231808673824</v>
+        <v>0.2329344646734626</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.0051758904736</v>
+        <v>57.319636</v>
       </c>
       <c r="H3">
-        <v>55.0051758904736</v>
+        <v>171.958908</v>
       </c>
       <c r="I3">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="J3">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>231.5193545371954</v>
+        <v>248.3891017078533</v>
       </c>
       <c r="R3">
-        <v>231.5193545371954</v>
+        <v>2235.50191537068</v>
       </c>
       <c r="S3">
-        <v>0.3953617917365441</v>
+        <v>0.2671470905482921</v>
       </c>
       <c r="T3">
-        <v>0.3953617917365441</v>
+        <v>0.2671470905482921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.0051758904736</v>
+        <v>57.319636</v>
       </c>
       <c r="H4">
-        <v>55.0051758904736</v>
+        <v>171.958908</v>
       </c>
       <c r="I4">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="J4">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>12.72294748325987</v>
+        <v>16.67917338800533</v>
       </c>
       <c r="R4">
-        <v>12.72294748325987</v>
+        <v>150.112560492048</v>
       </c>
       <c r="S4">
-        <v>0.02172676804151785</v>
+        <v>0.01793876064899528</v>
       </c>
       <c r="T4">
-        <v>0.02172676804151785</v>
+        <v>0.01793876064899528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.0051758904736</v>
+        <v>57.319636</v>
       </c>
       <c r="H5">
-        <v>55.0051758904736</v>
+        <v>171.958908</v>
       </c>
       <c r="I5">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="J5">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>21.04167006592859</v>
+        <v>27.59397847512533</v>
       </c>
       <c r="R5">
-        <v>21.04167006592859</v>
+        <v>248.345806276128</v>
       </c>
       <c r="S5">
-        <v>0.03593251369858242</v>
+        <v>0.02967783616751516</v>
       </c>
       <c r="T5">
-        <v>0.03593251369858242</v>
+        <v>0.02967783616751516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.95852678880209</v>
+        <v>5.975184333333334</v>
       </c>
       <c r="H6">
-        <v>5.95852678880209</v>
+        <v>17.925553</v>
       </c>
       <c r="I6">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="J6">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>8.628610630107458</v>
+        <v>22.57686951725567</v>
       </c>
       <c r="R6">
-        <v>8.628610630107458</v>
+        <v>203.191825655301</v>
       </c>
       <c r="S6">
-        <v>0.01473493637599186</v>
+        <v>0.02428184233427896</v>
       </c>
       <c r="T6">
-        <v>0.01473493637599186</v>
+        <v>0.02428184233427896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.95852678880209</v>
+        <v>5.975184333333334</v>
       </c>
       <c r="H7">
-        <v>5.95852678880209</v>
+        <v>17.925553</v>
       </c>
       <c r="I7">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="J7">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>25.07971756845099</v>
+        <v>25.89288370734778</v>
       </c>
       <c r="R7">
-        <v>25.07971756845099</v>
+        <v>233.03595336613</v>
       </c>
       <c r="S7">
-        <v>0.04282822096636528</v>
+        <v>0.02784827716176942</v>
       </c>
       <c r="T7">
-        <v>0.04282822096636528</v>
+        <v>0.02784827716176943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.95852678880209</v>
+        <v>5.975184333333334</v>
       </c>
       <c r="H8">
-        <v>5.95852678880209</v>
+        <v>17.925553</v>
       </c>
       <c r="I8">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="J8">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>1.378234360389632</v>
+        <v>1.738691004963111</v>
       </c>
       <c r="R8">
-        <v>1.378234360389632</v>
+        <v>15.648219044668</v>
       </c>
       <c r="S8">
-        <v>0.002353588136273816</v>
+        <v>0.00186999445686105</v>
       </c>
       <c r="T8">
-        <v>0.002353588136273816</v>
+        <v>0.00186999445686105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.95852678880209</v>
+        <v>5.975184333333334</v>
       </c>
       <c r="H9">
-        <v>5.95852678880209</v>
+        <v>17.925553</v>
       </c>
       <c r="I9">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="J9">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>2.279373763273154</v>
+        <v>2.876485605716444</v>
       </c>
       <c r="R9">
-        <v>2.279373763273154</v>
+        <v>25.888370451448</v>
       </c>
       <c r="S9">
-        <v>0.003892449064944859</v>
+        <v>0.003093713674583871</v>
       </c>
       <c r="T9">
-        <v>0.003892449064944859</v>
+        <v>0.003093713674583872</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.9192973812105</v>
+        <v>32.32302533333333</v>
       </c>
       <c r="H10">
-        <v>26.9192973812105</v>
+        <v>96.969076</v>
       </c>
       <c r="I10">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="J10">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>38.9821416889583</v>
+        <v>122.1305795174547</v>
       </c>
       <c r="R10">
-        <v>38.9821416889583</v>
+        <v>1099.175215657092</v>
       </c>
       <c r="S10">
-        <v>0.06656916185121066</v>
+        <v>0.1313537057815016</v>
       </c>
       <c r="T10">
-        <v>0.06656916185121066</v>
+        <v>0.1313537057815016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.9192973812105</v>
+        <v>32.32302533333333</v>
       </c>
       <c r="H11">
-        <v>26.9192973812105</v>
+        <v>96.969076</v>
       </c>
       <c r="I11">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="J11">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>113.3045800399314</v>
+        <v>140.0687057228844</v>
       </c>
       <c r="R11">
-        <v>113.3045800399314</v>
+        <v>1260.61835150596</v>
       </c>
       <c r="S11">
-        <v>0.1934883667332749</v>
+        <v>0.1506464935597068</v>
       </c>
       <c r="T11">
-        <v>0.1934883667332749</v>
+        <v>0.1506464935597068</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.9192973812105</v>
+        <v>32.32302533333333</v>
       </c>
       <c r="H12">
-        <v>26.9192973812105</v>
+        <v>96.969076</v>
       </c>
       <c r="I12">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="J12">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>6.226555979920297</v>
+        <v>9.40552630096178</v>
       </c>
       <c r="R12">
-        <v>6.226555979920297</v>
+        <v>84.64973670865601</v>
       </c>
       <c r="S12">
-        <v>0.01063298717936639</v>
+        <v>0.01011581816231487</v>
       </c>
       <c r="T12">
-        <v>0.01063298717936639</v>
+        <v>0.01011581816231487</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.9192973812105</v>
+        <v>32.32302533333333</v>
       </c>
       <c r="H13">
-        <v>26.9192973812105</v>
+        <v>96.969076</v>
       </c>
       <c r="I13">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="J13">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N13">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O13">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P13">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q13">
-        <v>10.29770316578784</v>
+        <v>15.56047678493511</v>
       </c>
       <c r="R13">
-        <v>10.29770316578784</v>
+        <v>140.044291064416</v>
       </c>
       <c r="S13">
-        <v>0.01758521823169161</v>
+        <v>0.0167355816823594</v>
       </c>
       <c r="T13">
-        <v>0.01758521823169161</v>
+        <v>0.0167355816823594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.49737923160728</v>
+        <v>9.037676333333334</v>
       </c>
       <c r="H14">
-        <v>5.49737923160728</v>
+        <v>27.113029</v>
       </c>
       <c r="I14">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835883</v>
       </c>
       <c r="J14">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835884</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N14">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q14">
-        <v>7.960817590805005</v>
+        <v>34.14830872724367</v>
       </c>
       <c r="R14">
-        <v>7.960817590805005</v>
+        <v>307.334778545193</v>
       </c>
       <c r="S14">
-        <v>0.01359455719233534</v>
+        <v>0.03672714004319605</v>
       </c>
       <c r="T14">
-        <v>0.01359455719233534</v>
+        <v>0.03672714004319606</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.49737923160728</v>
+        <v>9.037676333333334</v>
       </c>
       <c r="H15">
-        <v>5.49737923160728</v>
+        <v>27.113029</v>
       </c>
       <c r="I15">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835883</v>
       </c>
       <c r="J15">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835884</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q15">
-        <v>23.13872596066599</v>
+        <v>39.16389674845444</v>
       </c>
       <c r="R15">
-        <v>23.13872596066599</v>
+        <v>352.47507073609</v>
       </c>
       <c r="S15">
-        <v>0.03951362153974937</v>
+        <v>0.04212149808081747</v>
       </c>
       <c r="T15">
-        <v>0.03951362153974937</v>
+        <v>0.04212149808081748</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.49737923160728</v>
+        <v>9.037676333333334</v>
       </c>
       <c r="H16">
-        <v>5.49737923160728</v>
+        <v>27.113029</v>
       </c>
       <c r="I16">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835883</v>
       </c>
       <c r="J16">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835884</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N16">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q16">
-        <v>1.271568831969073</v>
+        <v>2.629831260413778</v>
       </c>
       <c r="R16">
-        <v>1.271568831969073</v>
+        <v>23.668481343724</v>
       </c>
       <c r="S16">
-        <v>0.002171437168735151</v>
+        <v>0.00282843234675733</v>
       </c>
       <c r="T16">
-        <v>0.002171437168735151</v>
+        <v>0.00282843234675733</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.49737923160728</v>
+        <v>9.037676333333334</v>
       </c>
       <c r="H17">
-        <v>5.49737923160728</v>
+        <v>27.113029</v>
       </c>
       <c r="I17">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835883</v>
       </c>
       <c r="J17">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835884</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N17">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O17">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P17">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q17">
-        <v>2.102966459903678</v>
+        <v>4.350785587807111</v>
       </c>
       <c r="R17">
-        <v>2.102966459903678</v>
+        <v>39.157070290264</v>
       </c>
       <c r="S17">
-        <v>0.003591201216033968</v>
+        <v>0.004679350677587969</v>
       </c>
       <c r="T17">
-        <v>0.003591201216033968</v>
+        <v>0.004679350677587971</v>
       </c>
     </row>
   </sheetData>
